--- a/indicadores_afp.xlsx
+++ b/indicadores_afp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>renta A</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>int var E</t>
+  </si>
+  <si>
+    <t>rf A</t>
+  </si>
+  <si>
+    <t>rf E</t>
   </si>
   <si>
     <t>year</t>
@@ -50,6 +56,12 @@
   </si>
   <si>
     <t>renta int/E</t>
+  </si>
+  <si>
+    <t>rf/A</t>
+  </si>
+  <si>
+    <t>rf/E</t>
   </si>
 </sst>
 </file>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +468,20 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>40179</v>
       </c>
@@ -474,31 +498,43 @@
         <v>42.6</v>
       </c>
       <c r="F2">
+        <v>2498.7</v>
+      </c>
+      <c r="G2">
+        <v>199.5</v>
+      </c>
+      <c r="H2">
         <v>2010</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>500.6625</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>48219509.15037575</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>7860185.254537737</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>6.134653012476813</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.6236843304324053</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.01082509592661297</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2">
+        <v>0.1035014104226297</v>
+      </c>
+      <c r="Q2">
+        <v>0.05069499148730719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>40210</v>
       </c>
@@ -515,31 +551,43 @@
         <v>62.4</v>
       </c>
       <c r="F3">
+        <v>2420.1</v>
+      </c>
+      <c r="G3">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="H3">
         <v>2010</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>532.557</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>45699521.36578807</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>7369915.333006608</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>6.200820403067594</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.6150154493458682</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.01589849422915234</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3">
+        <v>0.099438728551706</v>
+      </c>
+      <c r="Q3">
+        <v>0.02435730846645774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>40238</v>
       </c>
@@ -556,31 +604,43 @@
         <v>76.7</v>
       </c>
       <c r="F4">
+        <v>2683.5</v>
+      </c>
+      <c r="G4">
+        <v>85.8</v>
+      </c>
+      <c r="H4">
         <v>2010</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>523.1626086956522</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>49691242.39366926</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>7594961.746036231</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>6.542658680223486</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.6256510466753344</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.01930336739316454</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4">
+        <v>0.1032250371202388</v>
+      </c>
+      <c r="Q4">
+        <v>0.02159359742286203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>40269</v>
       </c>
@@ -597,31 +657,43 @@
         <v>88.59999999999999</v>
       </c>
       <c r="F5">
+        <v>2900.6</v>
+      </c>
+      <c r="G5">
+        <v>61.1</v>
+      </c>
+      <c r="H5">
         <v>2010</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>520.6242857142857</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>51304944.33880204</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>7437225.089658842</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>6.898398760330578</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.6133557464077932</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.02288223140495868</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5">
+        <v>0.1085935920570859</v>
+      </c>
+      <c r="Q5">
+        <v>0.01577995867768595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>40299</v>
       </c>
@@ -638,31 +710,43 @@
         <v>74.3</v>
       </c>
       <c r="F6">
+        <v>2665.9</v>
+      </c>
+      <c r="G6">
+        <v>112.9</v>
+      </c>
+      <c r="H6">
         <v>2010</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>533.2065</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>45819583.96981282</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>8473077.503743859</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>5.407667279045574</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.5993049899104836</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.01644569379579008</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="P6">
+        <v>0.1091182212980889</v>
+      </c>
+      <c r="Q6">
+        <v>0.02498948626574294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>40330</v>
       </c>
@@ -679,31 +763,43 @@
         <v>92.59999999999999</v>
       </c>
       <c r="F7">
+        <v>3083</v>
+      </c>
+      <c r="G7">
+        <v>105</v>
+      </c>
+      <c r="H7">
         <v>2010</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>536.6680952380952</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>45191432.49840505</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>8828175.257741107</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>5.119000379923171</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.5967970708536746</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.01954493646840305</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7">
+        <v>0.1271193429212297</v>
+      </c>
+      <c r="Q7">
+        <v>0.02216218498037064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>40360</v>
       </c>
@@ -720,31 +816,43 @@
         <v>102.3</v>
       </c>
       <c r="F8">
+        <v>3403.7</v>
+      </c>
+      <c r="G8">
+        <v>119</v>
+      </c>
+      <c r="H8">
         <v>2010</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>531.7214285714285</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>49980870.75670666</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>9152348.840020958</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>5.460988390013357</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.5891051667111932</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.02102126785163876</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8">
+        <v>0.1280746842063674</v>
+      </c>
+      <c r="Q8">
+        <v>0.02445289222233638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>40391</v>
       </c>
@@ -761,113 +869,149 @@
         <v>73.2</v>
       </c>
       <c r="F9">
+        <v>3549.2</v>
+      </c>
+      <c r="G9">
+        <v>131.6</v>
+      </c>
+      <c r="H9">
         <v>2010</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>509.3240909090909</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>53886710.81906234</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>9647295.479838254</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>5.58568056007815</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.5561725291301401</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.01489742754802996</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9">
+        <v>0.1293166896209985</v>
+      </c>
+      <c r="Q9">
+        <v>0.02678280690328883</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>40422</v>
       </c>
       <c r="B10">
-        <v>30143.4</v>
+        <v>31109.2</v>
       </c>
       <c r="C10">
-        <v>4859.2</v>
+        <v>4526.5</v>
       </c>
       <c r="D10">
-        <v>17351.8</v>
+        <v>18294.4</v>
       </c>
       <c r="E10">
-        <v>115.4</v>
+        <v>129.9</v>
       </c>
       <c r="F10">
+        <v>3887.1</v>
+      </c>
+      <c r="G10">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="H10">
         <v>2010</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>493.9329999999999</v>
       </c>
-      <c r="I10">
-        <v>61027305.32278671</v>
-      </c>
-      <c r="J10">
-        <v>9837771.519619059</v>
-      </c>
       <c r="K10">
-        <v>6.203366809351334</v>
+        <v>62982631.24755789</v>
       </c>
       <c r="L10">
-        <v>0.5756417656933193</v>
+        <v>9164198.383181527</v>
       </c>
       <c r="M10">
-        <v>0.02374876522884426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6.872683088478958</v>
+      </c>
+      <c r="N10">
+        <v>0.5880704100394739</v>
+      </c>
+      <c r="O10">
+        <v>0.02869766928090136</v>
+      </c>
+      <c r="P10">
+        <v>0.1249501755107814</v>
+      </c>
+      <c r="Q10">
+        <v>0.01997128023859494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>40452</v>
       </c>
       <c r="B11">
-        <v>31109.2</v>
+        <v>30143.4</v>
       </c>
       <c r="C11">
-        <v>4526.5</v>
+        <v>4859.2</v>
       </c>
       <c r="D11">
-        <v>18294.4</v>
+        <v>17351.8</v>
       </c>
       <c r="E11">
-        <v>129.9</v>
+        <v>115.4</v>
       </c>
       <c r="F11">
+        <v>3604.7</v>
+      </c>
+      <c r="G11">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="H11">
         <v>2010</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>484.0415000000001</v>
       </c>
-      <c r="I11">
-        <v>64269695.88351411</v>
-      </c>
-      <c r="J11">
-        <v>9351470.896607004</v>
-      </c>
       <c r="K11">
-        <v>6.872683088478958</v>
+        <v>62274412.42124899</v>
       </c>
       <c r="L11">
-        <v>0.5880704100394739</v>
+        <v>10038808.65586938</v>
       </c>
       <c r="M11">
-        <v>0.02869766928090136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>6.203366809351334</v>
+      </c>
+      <c r="N11">
+        <v>0.5756417656933193</v>
+      </c>
+      <c r="O11">
+        <v>0.02374876522884426</v>
+      </c>
+      <c r="P11">
+        <v>0.1195850501270593</v>
+      </c>
+      <c r="Q11">
+        <v>0.01942706618373395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>40483</v>
       </c>
@@ -884,31 +1028,43 @@
         <v>119.3</v>
       </c>
       <c r="F12">
+        <v>3635.8</v>
+      </c>
+      <c r="G12">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="H12">
         <v>2010</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>482.3166666666667</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>64885794.25688518</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>9360240.505891705</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>6.932064856244185</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.5807352494767619</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.02642537544854472</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12">
+        <v>0.1161764470930326</v>
+      </c>
+      <c r="Q12">
+        <v>0.01647986532583175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>40513</v>
       </c>
@@ -925,31 +1081,43 @@
         <v>128.1</v>
       </c>
       <c r="F13">
+        <v>3950.9</v>
+      </c>
+      <c r="G13">
+        <v>100.2</v>
+      </c>
+      <c r="H13">
         <v>2010</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>474.7780952380953</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>69937935.91793258</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>9852181.570538217</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>7.098725842312296</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.5750399036289716</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.02738583889173935</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13">
+        <v>0.1189850926065352</v>
+      </c>
+      <c r="Q13">
+        <v>0.02142124166239097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>40544</v>
       </c>
@@ -966,31 +1134,43 @@
         <v>121.7</v>
       </c>
       <c r="F14">
+        <v>3421.2</v>
+      </c>
+      <c r="G14">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="H14">
         <v>2011</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>489.4409523809524</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>66207986.56581951</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>9072391.630489985</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>7.297743446536349</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.5969776175825261</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.0274074407711017</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <v>0.1055766257572157</v>
+      </c>
+      <c r="Q14">
+        <v>0.01810647689397352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="2">
         <v>40575</v>
       </c>
@@ -1007,31 +1187,43 @@
         <v>124.8</v>
       </c>
       <c r="F15">
+        <v>3513</v>
+      </c>
+      <c r="G15">
+        <v>84</v>
+      </c>
+      <c r="H15">
         <v>2011</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>475.691</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>68372325.73246078</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>9009840.421618236</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>7.588627826127535</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.5980119357645561</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.02911873818801185</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15">
+        <v>0.1080122124824361</v>
+      </c>
+      <c r="Q15">
+        <v>0.01959915070346952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2">
         <v>40603</v>
       </c>
@@ -1048,31 +1240,43 @@
         <v>152.4</v>
       </c>
       <c r="F16">
+        <v>3280.5</v>
+      </c>
+      <c r="G16">
+        <v>73.2</v>
+      </c>
+      <c r="H16">
         <v>2011</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>479.6521739130435</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>67384871.28353879</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>12052066.71501088</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>5.591146554110157</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.6139078564290421</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>0.02636313313036258</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16">
+        <v>0.1014965363398131</v>
+      </c>
+      <c r="Q16">
+        <v>0.01266260725159148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2">
         <v>40634</v>
       </c>
@@ -1089,31 +1293,43 @@
         <v>63.4</v>
       </c>
       <c r="F17">
+        <v>3379.1</v>
+      </c>
+      <c r="G17">
+        <v>96.8</v>
+      </c>
+      <c r="H17">
         <v>2011</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>471.3200000000001</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>71975303.403208</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>12002036.83272511</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>5.996924056003394</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>0.5869105101493364</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>0.01120774996464432</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17">
+        <v>0.09960970893247728</v>
+      </c>
+      <c r="Q17">
+        <v>0.01711214821100268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2">
         <v>40664</v>
       </c>
@@ -1130,31 +1346,43 @@
         <v>68.59999999999999</v>
       </c>
       <c r="F18">
+        <v>3438.5</v>
+      </c>
+      <c r="G18">
+        <v>82.8</v>
+      </c>
+      <c r="H18">
         <v>2011</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>467.7286363636363</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>73929833.05199304</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>12329371.24575925</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>5.996237081223555</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.5910593393118965</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.01189567871263092</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18">
+        <v>0.09943867827676256</v>
+      </c>
+      <c r="Q18">
+        <v>0.01435804952486648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="2">
         <v>40695</v>
       </c>
@@ -1171,31 +1399,43 @@
         <v>62.8</v>
       </c>
       <c r="F19">
+        <v>3180</v>
+      </c>
+      <c r="G19">
+        <v>118.1</v>
+      </c>
+      <c r="H19">
         <v>2011</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>6</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>469.4119047619047</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>70584916.28329268</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>12649231.81488489</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>5.580174141502602</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.5912432771765047</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.01057648584468734</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19">
+        <v>0.09597566202080075</v>
+      </c>
+      <c r="Q19">
+        <v>0.01988985634168112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="2">
         <v>40725</v>
       </c>
@@ -1212,31 +1452,43 @@
         <v>42</v>
       </c>
       <c r="F20">
+        <v>3126.1</v>
+      </c>
+      <c r="G20">
+        <v>141.8</v>
+      </c>
+      <c r="H20">
         <v>2011</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>7</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>462.9371428571428</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>72308952.77359469</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>13695163.79884958</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>5.279889589905363</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.5821476048932769</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.006624605678233439</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20">
+        <v>0.09338750392089501</v>
+      </c>
+      <c r="Q20">
+        <v>0.02236593059936909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="2">
         <v>40756</v>
       </c>
@@ -1253,31 +1505,43 @@
         <v>29</v>
       </c>
       <c r="F21">
+        <v>2977.8</v>
+      </c>
+      <c r="G21">
+        <v>146.3</v>
+      </c>
+      <c r="H21">
         <v>2011</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>466.7904545454545</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>61653574.36030767</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>20031257.94229258</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>3.077868326488706</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.5473065710423812</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.003101471594798084</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21">
+        <v>0.10347020254141</v>
+      </c>
+      <c r="Q21">
+        <v>0.01564638945927447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2">
         <v>40787</v>
       </c>
@@ -1294,31 +1558,43 @@
         <v>23.8</v>
       </c>
       <c r="F22">
+        <v>2562.1</v>
+      </c>
+      <c r="G22">
+        <v>136.7</v>
+      </c>
+      <c r="H22">
         <v>2011</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>9</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>483.6938095238095</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>50374223.36247744</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>20017002.09794272</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>2.516571818097314</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.5493460068867301</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.002458144410819967</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22">
+        <v>0.105151914371432</v>
+      </c>
+      <c r="Q22">
+        <v>0.01411883785542392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2">
         <v>40817</v>
       </c>
@@ -1335,31 +1611,43 @@
         <v>25</v>
       </c>
       <c r="F23">
+        <v>2708.7</v>
+      </c>
+      <c r="G23">
+        <v>143.9</v>
+      </c>
+      <c r="H23">
         <v>2011</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>10</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>511.7442105263158</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>52323992.0437225</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>21064038.9832914</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>2.484043638792512</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.5548335294007806</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.002319238547600052</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23">
+        <v>0.1011595989020223</v>
+      </c>
+      <c r="Q23">
+        <v>0.0133495370799859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2">
         <v>40848</v>
       </c>
@@ -1376,31 +1664,43 @@
         <v>12200</v>
       </c>
       <c r="F24">
+        <v>1271174</v>
+      </c>
+      <c r="G24">
+        <v>54304</v>
+      </c>
+      <c r="H24">
         <v>2011</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>11</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>508.437619047619</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>25155788086.56585</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>10504266010.06445</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>2.394816359606978</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.5618922813174421</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.002284317374817536</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24">
+        <v>0.09938695788454067</v>
+      </c>
+      <c r="Q24">
+        <v>0.0101678336657452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2">
         <v>40878</v>
       </c>
@@ -1417,31 +1717,43 @@
         <v>19243</v>
       </c>
       <c r="F25">
+        <v>1258623</v>
+      </c>
+      <c r="G25">
+        <v>71467</v>
+      </c>
+      <c r="H25">
         <v>2011</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>12</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>517.1719047619047</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>24887247125.16148</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>10766613477.51185</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>2.311520440214863</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.5598294924592019</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.003455880636257024</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25">
+        <v>0.09778762076095963</v>
+      </c>
+      <c r="Q25">
+        <v>0.01283487093651618</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2">
         <v>40909</v>
       </c>
@@ -1458,31 +1770,43 @@
         <v>29469</v>
       </c>
       <c r="F26">
+        <v>1288027</v>
+      </c>
+      <c r="G26">
+        <v>42943</v>
+      </c>
+      <c r="H26">
         <v>2012</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>501.3395454545454</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>26404922811.34089</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>11626324021.00917</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>2.271132540571403</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>0.5642590871375313</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.005055813129982213</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26">
+        <v>0.09729893837601203</v>
+      </c>
+      <c r="Q26">
+        <v>0.007367463546127325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2">
         <v>40940</v>
       </c>
@@ -1499,31 +1823,43 @@
         <v>37954</v>
       </c>
       <c r="F27">
+        <v>1297291</v>
+      </c>
+      <c r="G27">
+        <v>37652</v>
+      </c>
+      <c r="H27">
         <v>2012</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>2</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>481.4885714285714</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>28952543896.60636</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>11720112033.51511</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>2.470329960482713</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.5615485556679155</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.006725735854406266</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27">
+        <v>0.09306035249265099</v>
+      </c>
+      <c r="Q27">
+        <v>0.006672219170314189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2">
         <v>40969</v>
       </c>
@@ -1540,31 +1876,43 @@
         <v>55808</v>
       </c>
       <c r="F28">
+        <v>1378427</v>
+      </c>
+      <c r="G28">
+        <v>40946</v>
+      </c>
+      <c r="H28">
         <v>2012</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>3</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>485.3954545454545</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>29387327109.10505</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>10875155402.81121</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>2.702244337723071</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>0.5628352252711719</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.01057219785513657</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28">
+        <v>0.0966335599452486</v>
+      </c>
+      <c r="Q28">
+        <v>0.007756759127301136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2">
         <v>41000</v>
       </c>
@@ -1581,31 +1929,43 @@
         <v>31354</v>
       </c>
       <c r="F29">
+        <v>1441150</v>
+      </c>
+      <c r="G29">
+        <v>37196</v>
+      </c>
+      <c r="H29">
         <v>2012</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>486.0009999999999</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>26831590881.50025</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>13332275036.47112</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>2.012529055101328</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.5682745943690961</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.004838954369774577</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29">
+        <v>0.1105161125076494</v>
+      </c>
+      <c r="Q29">
+        <v>0.005740567287686903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2">
         <v>41030</v>
       </c>
@@ -1622,31 +1982,43 @@
         <v>40070</v>
       </c>
       <c r="F30">
+        <v>1368014</v>
+      </c>
+      <c r="G30">
+        <v>39914</v>
+      </c>
+      <c r="H30">
         <v>2012</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>497.0880952380951</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>28111890294.42899</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>11332812139.26822</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>2.480574984299019</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.5610784848468802</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.007112925998942736</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30">
+        <v>0.09789649212120206</v>
+      </c>
+      <c r="Q30">
+        <v>0.007085234048460203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2">
         <v>41061</v>
       </c>
@@ -1663,31 +2035,43 @@
         <v>33579</v>
       </c>
       <c r="F31">
+        <v>1411105</v>
+      </c>
+      <c r="G31">
+        <v>43965</v>
+      </c>
+      <c r="H31">
         <v>2012</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>6</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>505.6280952380952</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>25969371804.42242</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>13433165727.86888</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>1.933227976972362</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>0.5511297674391684</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.00494376920773371</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31">
+        <v>0.107464912384916</v>
+      </c>
+      <c r="Q31">
+        <v>0.006472879276274236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="2">
         <v>41091</v>
       </c>
@@ -1704,31 +2088,43 @@
         <v>33749</v>
       </c>
       <c r="F32">
+        <v>1372731</v>
+      </c>
+      <c r="G32">
+        <v>55648</v>
+      </c>
+      <c r="H32">
         <v>2012</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>7</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>491.9345</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>26515729228.17977</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>14428510299.64355</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>1.837731593734582</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>0.5470778063358163</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.004754798685016178</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32">
+        <v>0.1052384843240594</v>
+      </c>
+      <c r="Q32">
+        <v>0.007840085253601003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2">
         <v>41122</v>
       </c>
@@ -1745,31 +2141,43 @@
         <v>27810</v>
       </c>
       <c r="F33">
+        <v>1415628</v>
+      </c>
+      <c r="G33">
+        <v>74176</v>
+      </c>
+      <c r="H33">
         <v>2012</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>8</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>480.9940909090909</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>27071097641.53217</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>15268058670.15944</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>1.773054336923732</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>0.5491489234575615</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.003786844114105879</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="P33">
+        <v>0.1087185215187914</v>
+      </c>
+      <c r="Q33">
+        <v>0.01010042966587262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2">
         <v>41153</v>
       </c>
@@ -1786,31 +2194,43 @@
         <v>64605</v>
       </c>
       <c r="F34">
+        <v>1422119</v>
+      </c>
+      <c r="G34">
+        <v>46572</v>
+      </c>
+      <c r="H34">
         <v>2012</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>9</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>474.9717647058823</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>26831285451.02372</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>17626155115.10282</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>1.522242671519075</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>0.5544308610813958</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>0.007716862284735914</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P34">
+        <v>0.1115903567320509</v>
+      </c>
+      <c r="Q34">
+        <v>0.005562877646075706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="2">
         <v>41183</v>
       </c>
@@ -1827,31 +2247,43 @@
         <v>86902</v>
       </c>
       <c r="F35">
+        <v>1475668</v>
+      </c>
+      <c r="G35">
+        <v>59988</v>
+      </c>
+      <c r="H35">
         <v>2012</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>10</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>475.3627272727272</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>27054855717.83461</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>17998123346.9561</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>1.503204261704885</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>0.5670635812351731</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0.01015727993134819</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="P35">
+        <v>0.1147409156612267</v>
+      </c>
+      <c r="Q35">
+        <v>0.007011517669578548</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="2">
         <v>41214</v>
       </c>
@@ -1868,31 +2300,43 @@
         <v>167414</v>
       </c>
       <c r="F36">
+        <v>1473930</v>
+      </c>
+      <c r="G36">
+        <v>57232</v>
+      </c>
+      <c r="H36">
         <v>2012</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>11</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>480.5705</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>26355465015.01861</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>18785241707.51222</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>1.402987804222879</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>0.5882011350534544</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0.01854461739860271</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="P36">
+        <v>0.1163721524478118</v>
+      </c>
+      <c r="Q36">
+        <v>0.006339646283804404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="2">
         <v>41244</v>
       </c>
@@ -1909,31 +2353,43 @@
         <v>159127</v>
       </c>
       <c r="F37">
+        <v>1488756</v>
+      </c>
+      <c r="G37">
+        <v>62009</v>
+      </c>
+      <c r="H37">
         <v>2012</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>12</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>477.1284210526315</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>27359546034.16933</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>19144382512.04575</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>1.429116139784324</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.5830591457020471</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>0.01742076511586127</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="P37">
+        <v>0.1140458144033365</v>
+      </c>
+      <c r="Q37">
+        <v>0.006788566516489607</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="2">
         <v>41275</v>
       </c>
@@ -1950,31 +2406,43 @@
         <v>129466</v>
       </c>
       <c r="F38">
+        <v>1512027</v>
+      </c>
+      <c r="G38">
+        <v>109152</v>
+      </c>
+      <c r="H38">
         <v>2013</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>1</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>472.6686363636363</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>30992314431.30927</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>16039194092.34415</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>1.932286264065011</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.5861802384379377</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.01707718964642121</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="P38">
+        <v>0.1032164102970183</v>
+      </c>
+      <c r="Q38">
+        <v>0.01439767509837462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="2">
         <v>41306</v>
       </c>
@@ -1991,31 +2459,43 @@
         <v>131798</v>
       </c>
       <c r="F39">
+        <v>1513411</v>
+      </c>
+      <c r="G39">
+        <v>95895</v>
+      </c>
+      <c r="H39">
         <v>2013</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>472.3445</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>31437836155.60253</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>15452094816.38931</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>2.034535545449663</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>0.5914479616099921</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>0.01805770662001734</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="P39">
+        <v>0.1019167056859667</v>
+      </c>
+      <c r="Q39">
+        <v>0.0131386195262945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="2">
         <v>41334</v>
       </c>
@@ -2032,31 +2512,43 @@
         <v>145133</v>
       </c>
       <c r="F40">
+        <v>1457999</v>
+      </c>
+      <c r="G40">
+        <v>78547</v>
+      </c>
+      <c r="H40">
         <v>2013</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>3</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>472.4840000000001</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>31688755598.07315</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>15331012267.08206</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>2.066970859198488</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>0.5938279891774415</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>0.02003587137879784</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="P40">
+        <v>0.09737891578053796</v>
+      </c>
+      <c r="Q40">
+        <v>0.01084355445825852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="2">
         <v>41365</v>
       </c>
@@ -2073,31 +2565,43 @@
         <v>163821</v>
       </c>
       <c r="F41">
+        <v>1473540</v>
+      </c>
+      <c r="G41">
+        <v>54608</v>
+      </c>
+      <c r="H41">
         <v>2013</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>4</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>472.1372727272727</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>28787962283.69638</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>20147318480.18007</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>1.428873143193549</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>0.5830559739020459</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>0.0172220178085216</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="P41">
+        <v>0.1084133382676556</v>
+      </c>
+      <c r="Q41">
+        <v>0.005740777729886568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="2">
         <v>41395</v>
       </c>
@@ -2114,31 +2618,43 @@
         <v>169220</v>
       </c>
       <c r="F42">
+        <v>1394162</v>
+      </c>
+      <c r="G42">
+        <v>64643</v>
+      </c>
+      <c r="H42">
         <v>2013</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>5</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>479.5828571428571</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>28999952339.53317</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>19959733458.83923</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>1.452922825815114</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>0.6032634017549763</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>0.01767800704236976</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="P42">
+        <v>0.1002425962835457</v>
+      </c>
+      <c r="Q42">
+        <v>0.006753098979079946</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="2">
         <v>41426</v>
       </c>
@@ -2155,31 +2671,43 @@
         <v>172841</v>
       </c>
       <c r="F43">
+        <v>1366753</v>
+      </c>
+      <c r="G43">
+        <v>125988</v>
+      </c>
+      <c r="H43">
         <v>2013</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>6</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>502.8860000000001</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>25847786575.884</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>20460849973.95036</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>1.263280196511484</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>0.6025875313209458</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>0.01679784439925263</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="P43">
+        <v>0.105147059389206</v>
+      </c>
+      <c r="Q43">
+        <v>0.0122443564904915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="2">
         <v>41456</v>
       </c>
@@ -2196,31 +2724,43 @@
         <v>187705</v>
       </c>
       <c r="F44">
+        <v>1449591</v>
+      </c>
+      <c r="G44">
+        <v>74577</v>
+      </c>
+      <c r="H44">
         <v>2013</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>7</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>504.9622727272728</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>29027218054.9942</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>17470538843.13589</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>1.661495293054392</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>0.612857176969023</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>0.02127701057009647</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="P44">
+        <v>0.09889654890108578</v>
+      </c>
+      <c r="Q44">
+        <v>0.008453560732458298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="2">
         <v>41487</v>
       </c>
@@ -2237,31 +2777,43 @@
         <v>201930</v>
       </c>
       <c r="F45">
+        <v>1249532</v>
+      </c>
+      <c r="G45">
+        <v>224260</v>
+      </c>
+      <c r="H45">
         <v>2013</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>8</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>512.5885714285714</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>24886469794.76718</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>21625950358.40496</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>1.150768839395537</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>0.6228215061788012</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>0.01821615548277593</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="P45">
+        <v>0.09795241962541508</v>
+      </c>
+      <c r="Q45">
+        <v>0.02023055033213158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="2">
         <v>41518</v>
       </c>
@@ -2278,31 +2830,43 @@
         <v>201385</v>
       </c>
       <c r="F46">
+        <v>1278264</v>
+      </c>
+      <c r="G46">
+        <v>95227</v>
+      </c>
+      <c r="H46">
         <v>2013</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>9</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>504.5699999999998</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>28470652238.53976</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>19798957528.19233</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>1.437987439389147</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>0.6147993966351319</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>0.02015873937433183</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="P46">
+        <v>0.08898190845151456</v>
+      </c>
+      <c r="Q46">
+        <v>0.009532270399481079</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="2">
         <v>41548</v>
       </c>
@@ -2319,31 +2883,43 @@
         <v>214620</v>
       </c>
       <c r="F47">
+        <v>1397055</v>
+      </c>
+      <c r="G47">
+        <v>124758</v>
+      </c>
+      <c r="H47">
         <v>2013</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>10</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>500.8063636363635</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>29859726404.8707</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>20087783883.08311</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>1.486461950141599</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>0.6208833510845068</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>0.02133380516476493</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="P47">
+        <v>0.09342386732701433</v>
+      </c>
+      <c r="Q47">
+        <v>0.01240128070424817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="2">
         <v>41579</v>
       </c>
@@ -2360,31 +2936,43 @@
         <v>255558</v>
       </c>
       <c r="F48">
+        <v>1545517</v>
+      </c>
+      <c r="G48">
+        <v>176677</v>
+      </c>
+      <c r="H48">
         <v>2013</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>11</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>519.2500000000002</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>29380622051.03513</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>19399252768.41598</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>1.514523389213727</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>0.6404803181565045</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>0.02537043850221512</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="P48">
+        <v>0.1013062628671632</v>
+      </c>
+      <c r="Q48">
+        <v>0.01753955252136838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="2">
         <v>41609</v>
       </c>
@@ -2401,31 +2989,43 @@
         <v>268190</v>
       </c>
       <c r="F49">
+        <v>1536785</v>
+      </c>
+      <c r="G49">
+        <v>185041</v>
+      </c>
+      <c r="H49">
         <v>2013</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>12</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>529.4505</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>28723172421.21785</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>19310934638.83781</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>1.487404569401333</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>0.6390710687583191</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>0.02623094420053473</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="P49">
+        <v>0.1010544272305674</v>
+      </c>
+      <c r="Q49">
+        <v>0.01809836364447275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="2">
         <v>41640</v>
       </c>
@@ -2442,31 +3042,43 @@
         <v>288063</v>
       </c>
       <c r="F50">
+        <v>1570167</v>
+      </c>
+      <c r="G50">
+        <v>269359</v>
+      </c>
+      <c r="H50">
         <v>2014</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>537.0295454545454</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>26835158553.15223</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>21138766192.81993</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>1.26947610415726</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>0.6416957752448379</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>0.02537521112755637</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="P50">
+        <v>0.108954080600652</v>
+      </c>
+      <c r="Q50">
+        <v>0.02372759255477953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="2">
         <v>41671</v>
       </c>
@@ -2483,31 +3095,43 @@
         <v>312695</v>
       </c>
       <c r="F51">
+        <v>1643570</v>
+      </c>
+      <c r="G51">
+        <v>391000</v>
+      </c>
+      <c r="H51">
         <v>2014</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>2</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>554.4085</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>26052659726.53738</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>22525098370.60579</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>1.156605813563722</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>0.6387174275828493</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>0.02503942551416524</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="P51">
+        <v>0.1137905661495549</v>
+      </c>
+      <c r="Q51">
+        <v>0.0313097918931822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="2">
         <v>41699</v>
       </c>
@@ -2524,31 +3148,43 @@
         <v>335002</v>
       </c>
       <c r="F52">
+        <v>1804615</v>
+      </c>
+      <c r="G52">
+        <v>391248</v>
+      </c>
+      <c r="H52">
         <v>2014</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>3</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>563.8433333333334</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>25275435848.01925</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>21636286675.37673</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>1.168196568442776</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>0.6257504357821758</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>0.02746035977282959</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="P52">
+        <v>0.1266273329485287</v>
+      </c>
+      <c r="Q52">
+        <v>0.03207088566754834</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="2">
         <v>41730</v>
       </c>
@@ -2565,31 +3201,43 @@
         <v>349150</v>
       </c>
       <c r="F53">
+        <v>1914618</v>
+      </c>
+      <c r="G53">
+        <v>393716</v>
+      </c>
+      <c r="H53">
         <v>2014</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>4</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>554.6409523809524</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>26336104352.36524</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>22476852721.53757</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>1.171698933059685</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>0.6268349831951379</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>0.02800687245253972</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="P53">
+        <v>0.131074639000452</v>
+      </c>
+      <c r="Q53">
+        <v>0.03158170927831628</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="2">
         <v>41760</v>
       </c>
@@ -2606,31 +3254,43 @@
         <v>398055</v>
       </c>
       <c r="F54">
+        <v>1904967</v>
+      </c>
+      <c r="G54">
+        <v>389601</v>
+      </c>
+      <c r="H54">
         <v>2014</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>5</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>555.402</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>26741895059.79453</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>22553237114.73851</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>1.185723136938011</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>0.6256753239285879</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>0.03177801445667942</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="P54">
+        <v>0.128258996363037</v>
+      </c>
+      <c r="Q54">
+        <v>0.03110310437084513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="2">
         <v>41791</v>
       </c>
@@ -2647,31 +3307,43 @@
         <v>441507</v>
       </c>
       <c r="F55">
+        <v>1947905</v>
+      </c>
+      <c r="G55">
+        <v>550384</v>
+      </c>
+      <c r="H55">
         <v>2014</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>6</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>553.0633333333334</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>27370688106.84732</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>22863909498.00806</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>1.197113210635823</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>0.633772355738551</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>0.03491501511641976</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="P55">
+        <v>0.1286788555531862</v>
+      </c>
+      <c r="Q55">
+        <v>0.04352516648622915</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="2">
         <v>41821</v>
       </c>
@@ -2688,31 +3360,43 @@
         <v>479776</v>
       </c>
       <c r="F56">
+        <v>2069913</v>
+      </c>
+      <c r="G56">
+        <v>501408</v>
+      </c>
+      <c r="H56">
         <v>2014</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>7</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>558.2081818181816</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>28261696108.81572</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>22721843593.70649</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>1.243811752873946</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>0.6447235690365881</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>0.037826726163299</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="P56">
+        <v>0.1312072013595412</v>
+      </c>
+      <c r="Q56">
+        <v>0.03953224653189703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="2">
         <v>41852</v>
       </c>
@@ -2729,31 +3413,43 @@
         <v>566626</v>
       </c>
       <c r="F57">
+        <v>2198841</v>
+      </c>
+      <c r="G57">
+        <v>650039</v>
+      </c>
+      <c r="H57">
         <v>2014</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>8</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>579.0519999999999</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>29173488736.76285</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>22737876736.4589</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>1.283034870621178</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0.6480169528538119</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>0.04303571519441172</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="P57">
+        <v>0.1301631027870948</v>
+      </c>
+      <c r="Q57">
+        <v>0.04937100180588289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="2">
         <v>41883</v>
       </c>
@@ -2770,31 +3466,43 @@
         <v>563795</v>
       </c>
       <c r="F58">
+        <v>2256598</v>
+      </c>
+      <c r="G58">
+        <v>684436</v>
+      </c>
+      <c r="H58">
         <v>2014</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>9</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>593.4680000000001</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>27922622618.23721</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>21794452270.38357</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>1.281180287158727</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>0.6497510769146656</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>0.04358910525571136</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="P58">
+        <v>0.1361760352293497</v>
+      </c>
+      <c r="Q58">
+        <v>0.05291631327840449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="2">
         <v>41913</v>
       </c>
@@ -2811,31 +3519,43 @@
         <v>549715</v>
       </c>
       <c r="F59">
+        <v>2197088</v>
+      </c>
+      <c r="G59">
+        <v>550958</v>
+      </c>
+      <c r="H59">
         <v>2014</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>10</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>589.98</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>26842665853.07977</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>22966812434.31981</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>1.168758874564943</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>0.6485287658313293</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>0.04056949245606629</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="P59">
+        <v>0.1387345140723068</v>
+      </c>
+      <c r="Q59">
+        <v>0.04066122704421268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="2">
         <v>41944</v>
       </c>
@@ -2852,31 +3572,43 @@
         <v>459936</v>
       </c>
       <c r="F60">
+        <v>2458827</v>
+      </c>
+      <c r="G60">
+        <v>555192</v>
+      </c>
+      <c r="H60">
         <v>2014</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>11</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>592.4595</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>29917192651.98718</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>20920986160.23542</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>1.430008720566475</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>0.6535683910469697</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>0.03710706320704339</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="P60">
+        <v>0.1387229985232493</v>
+      </c>
+      <c r="Q60">
+        <v>0.04479219855815773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="2">
         <v>41974</v>
       </c>
@@ -2893,31 +3625,43 @@
         <v>539710</v>
       </c>
       <c r="F61">
+        <v>2386187</v>
+      </c>
+      <c r="G61">
+        <v>525055</v>
+      </c>
+      <c r="H61">
         <v>2014</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>12</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>612.9189999999998</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>26109464709.03987</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>24033926179.47887</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>1.086358696205582</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>0.6454214453839149</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>0.0366380758747798</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="P61">
+        <v>0.1491088507414272</v>
+      </c>
+      <c r="Q61">
+        <v>0.03564322493270924</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="2">
         <v>42005</v>
       </c>
@@ -2934,31 +3678,43 @@
         <v>569830</v>
       </c>
       <c r="F62">
+        <v>2459852</v>
+      </c>
+      <c r="G62">
+        <v>587871</v>
+      </c>
+      <c r="H62">
         <v>2015</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>620.9095238095239</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>26669611859.71424</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>23739010974.68383</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>1.123450841661252</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>0.6449522132906136</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>0.03865933394654926</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="P62">
+        <v>0.148547026054542</v>
+      </c>
+      <c r="Q62">
+        <v>0.03988330082040584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="2">
         <v>42036</v>
       </c>
@@ -2975,31 +3731,43 @@
         <v>565862</v>
       </c>
       <c r="F63">
+        <v>2502028</v>
+      </c>
+      <c r="G63">
+        <v>502862</v>
+      </c>
+      <c r="H63">
         <v>2015</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>2</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>623.6175000000001</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>28034651048.11843</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>22171539445.2529</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>1.264443144209406</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>0.6484166041341313</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>0.04092572556008146</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="P63">
+        <v>0.1431128784762756</v>
+      </c>
+      <c r="Q63">
+        <v>0.03636927768005925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="2">
         <v>42064</v>
       </c>
@@ -3016,31 +3784,43 @@
         <v>462261</v>
       </c>
       <c r="F64">
+        <v>2617640</v>
+      </c>
+      <c r="G64">
+        <v>515248</v>
+      </c>
+      <c r="H64">
         <v>2015</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>3</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>628.5031818181819</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>29466519081.7722</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>19992568635.29294</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>1.473873598700813</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>0.6438415833949835</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>0.03678842356940209</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="P64">
+        <v>0.1413427714477062</v>
+      </c>
+      <c r="Q64">
+        <v>0.04100532311245657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="2">
         <v>42095</v>
       </c>
@@ -3057,31 +3837,43 @@
         <v>402981</v>
       </c>
       <c r="F65">
+        <v>2674937</v>
+      </c>
+      <c r="G65">
+        <v>533127</v>
+      </c>
+      <c r="H65">
         <v>2015</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>4</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>614.7276190476191</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>30606308252.66784</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>20167016440.88593</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>1.517641855570546</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>0.6435675317758183</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>0.03250575007852566</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="P65">
+        <v>0.1421739023902946</v>
+      </c>
+      <c r="Q65">
+        <v>0.04300374712980053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="2">
         <v>42125</v>
       </c>
@@ -3098,31 +3890,43 @@
         <v>392341</v>
       </c>
       <c r="F66">
+        <v>2822395</v>
+      </c>
+      <c r="G66">
+        <v>537989</v>
+      </c>
+      <c r="H66">
         <v>2015</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>5</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>607.5968421052632</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>30425390191.21058</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>21353710389.68013</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>1.424829204666681</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>0.6433768423234609</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>0.03023951618130622</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="P66">
+        <v>0.1526743675110707</v>
+      </c>
+      <c r="Q66">
+        <v>0.04146527401129312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="2">
         <v>42156</v>
       </c>
@@ -3139,31 +3943,43 @@
         <v>377311</v>
       </c>
       <c r="F67">
+        <v>2848733</v>
+      </c>
+      <c r="G67">
+        <v>579055</v>
+      </c>
+      <c r="H67">
         <v>2015</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>6</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>629.9947619047617</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>29142307381.24052</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>20339380221.60427</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>1.43280213377819</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>0.6460260003798578</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>0.02944589866020775</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="P67">
+        <v>0.1551639666023603</v>
+      </c>
+      <c r="Q67">
+        <v>0.04519029354746243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="2">
         <v>42186</v>
       </c>
@@ -3180,31 +3996,43 @@
         <v>437414</v>
       </c>
       <c r="F68">
+        <v>2894611</v>
+      </c>
+      <c r="G68">
+        <v>625004</v>
+      </c>
+      <c r="H68">
         <v>2015</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>7</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>650.1395454545454</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>27341479416.6567</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>21455972179.39925</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>1.274306248537569</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>0.6569474290772213</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>0.03135724494056222</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="P68">
+        <v>0.1628401953962406</v>
+      </c>
+      <c r="Q68">
+        <v>0.04480515830959034</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="2">
         <v>42217</v>
       </c>
@@ -3221,31 +4049,43 @@
         <v>451131</v>
       </c>
       <c r="F69">
+        <v>2963966</v>
+      </c>
+      <c r="G69">
+        <v>692933</v>
+      </c>
+      <c r="H69">
         <v>2015</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>8</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>688.1157142857143</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>24243532960.61086</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>22496180044.46927</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>1.077673316655873</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>0.6482499234520591</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.0291428765227334</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="P69">
+        <v>0.177670707902409</v>
+      </c>
+      <c r="Q69">
+        <v>0.04476318598705747</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="2">
         <v>42248</v>
       </c>
@@ -3262,31 +4102,43 @@
         <v>486087</v>
       </c>
       <c r="F70">
+        <v>2846650</v>
+      </c>
+      <c r="G70">
+        <v>764452</v>
+      </c>
+      <c r="H70">
         <v>2015</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>9</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>691.7290476190475</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>23010858160.12463</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>23701557794.09912</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>0.9708584709927188</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>0.6443410962388735</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>0.02964838912413596</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="P70">
+        <v>0.1788402402194496</v>
+      </c>
+      <c r="Q70">
+        <v>0.04662698315882544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="2">
         <v>42278</v>
       </c>
@@ -3303,31 +4155,43 @@
         <v>532447</v>
       </c>
       <c r="F71">
+        <v>2730233</v>
+      </c>
+      <c r="G71">
+        <v>691570</v>
+      </c>
+      <c r="H71">
         <v>2015</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>10</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>685.3142857142858</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>24500318102.2263</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>23308354039.85658</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>1.051138920420185</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>0.6533138126757774</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>0.03333304535723685</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="P71">
+        <v>0.1626066128907571</v>
+      </c>
+      <c r="Q71">
+        <v>0.04329470196602533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="2">
         <v>42309</v>
       </c>
@@ -3344,31 +4208,43 @@
         <v>599413</v>
       </c>
       <c r="F72">
+        <v>2842991</v>
+      </c>
+      <c r="G72">
+        <v>619682</v>
+      </c>
+      <c r="H72">
         <v>2015</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>11</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>704.0023809523809</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>24099330427.04807</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>23528974401.46645</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>1.02424058166964</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>0.6554050557391713</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>0.03618670437311124</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="P72">
+        <v>0.1675700427903218</v>
+      </c>
+      <c r="Q72">
+        <v>0.03741034869003228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="2">
         <v>42339</v>
       </c>
@@ -3385,31 +4261,43 @@
         <v>564170</v>
       </c>
       <c r="F73">
+        <v>2746951</v>
+      </c>
+      <c r="G73">
+        <v>480813</v>
+      </c>
+      <c r="H73">
         <v>2015</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>12</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>704.2380000000001</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>25747307018.36595</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>20597904401.63694</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>1.249996432468139</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>0.6287630226659354</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>0.03889264638272606</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="P73">
+        <v>0.1514954695042508</v>
+      </c>
+      <c r="Q73">
+        <v>0.03314619704205765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="2">
         <v>42370</v>
       </c>
@@ -3426,31 +4314,43 @@
         <v>613940</v>
       </c>
       <c r="F74">
+        <v>2605686</v>
+      </c>
+      <c r="G74">
+        <v>683379</v>
+      </c>
+      <c r="H74">
         <v>2016</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>721.9479999999996</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>21536612055.16188</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>23542649886.1414</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>0.9147913322977126</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>0.6365268285680363</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>0.03612140779706775</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="P74">
+        <v>0.1675864019725869</v>
+      </c>
+      <c r="Q74">
+        <v>0.04020687940018954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" s="2">
         <v>42401</v>
       </c>
@@ -3467,31 +4367,43 @@
         <v>634116</v>
       </c>
       <c r="F75">
+        <v>2557882</v>
+      </c>
+      <c r="G75">
+        <v>1099943</v>
+      </c>
+      <c r="H75">
         <v>2016</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>2</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>704.0847619047619</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>20670796738.48793</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>25817040764.84298</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>0.8006648371039069</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>0.6300011962352875</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>0.03488488580728196</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="P75">
+        <v>0.175751218239558</v>
+      </c>
+      <c r="Q75">
+        <v>0.06051161924556255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="2">
         <v>42430</v>
       </c>
@@ -3508,31 +4420,43 @@
         <v>645868</v>
       </c>
       <c r="F76">
+        <v>2645885</v>
+      </c>
+      <c r="G76">
+        <v>1265911</v>
+      </c>
+      <c r="H76">
         <v>2016</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>3</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>682.0677272727273</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>22155424447.98537</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>27216471704.68941</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>0.8140446964757734</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>0.6284640836449062</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>0.0347924044617288</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="P76">
+        <v>0.1750908248684777</v>
+      </c>
+      <c r="Q76">
+        <v>0.06819363635379298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="2">
         <v>42461</v>
       </c>
@@ -3549,31 +4473,43 @@
         <v>598792</v>
       </c>
       <c r="F77">
+        <v>2772432</v>
+      </c>
+      <c r="G77">
+        <v>1290861</v>
+      </c>
+      <c r="H77">
         <v>2016</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>4</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>669.932380952381</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>22531121691.03065</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>28013028678.08976</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>0.8043086647268972</v>
       </c>
-      <c r="L77">
+      <c r="N77">
         <v>0.6168611149830585</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>0.03190692516878845</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="P77">
+        <v>0.1836737614287963</v>
+      </c>
+      <c r="Q77">
+        <v>0.06878416099464828</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="2">
         <v>42491</v>
       </c>
@@ -3590,31 +4526,43 @@
         <v>575887</v>
       </c>
       <c r="F78">
+        <v>2891985</v>
+      </c>
+      <c r="G78">
+        <v>1508460</v>
+      </c>
+      <c r="H78">
         <v>2016</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>5</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>681.8704545454547</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>22347278575.30922</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>29718096545.93147</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>0.7519754349263211</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>0.6209440653725774</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>0.02841936780950076</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="P78">
+        <v>0.1897883369999467</v>
+      </c>
+      <c r="Q78">
+        <v>0.07444078363623335</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="2">
         <v>42522</v>
       </c>
@@ -3631,31 +4579,43 @@
         <v>449428</v>
       </c>
       <c r="F79">
+        <v>2873594</v>
+      </c>
+      <c r="G79">
+        <v>1667435</v>
+      </c>
+      <c r="H79">
         <v>2016</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>6</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>681.0719047619048</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>21251638628.46452</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>30444807449.88117</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>0.698038201208839</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>0.5990389317484293</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>0.02167474162052631</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="P79">
+        <v>0.1985363441241175</v>
+      </c>
+      <c r="Q79">
+        <v>0.08041604616094745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" s="2">
         <v>42552</v>
       </c>
@@ -3672,31 +4632,43 @@
         <v>326495</v>
       </c>
       <c r="F80">
+        <v>2772655</v>
+      </c>
+      <c r="G80">
+        <v>1922974</v>
+      </c>
+      <c r="H80">
         <v>2016</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>7</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>657.5671428571428</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>22162322370.1219</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>33977566006.29594</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>0.6522633894969195</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>0.6063451338637357</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>0.01461316088137015</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="P80">
+        <v>0.1902569199727034</v>
+      </c>
+      <c r="Q80">
+        <v>0.08606786760192925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="2">
         <v>42583</v>
       </c>
@@ -3713,31 +4685,43 @@
         <v>292161</v>
       </c>
       <c r="F81">
+        <v>2645332</v>
+      </c>
+      <c r="G81">
+        <v>2362091</v>
+      </c>
+      <c r="H81">
         <v>2016</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>8</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>658.8904545454544</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>21889933145.18416</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>36339254628.47666</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>0.6023770539319336</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>0.6161811758774208</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>0.01220205593246927</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="P81">
+        <v>0.1834097988028622</v>
+      </c>
+      <c r="Q81">
+        <v>0.09865234066005479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="2">
         <v>42614</v>
       </c>
@@ -3754,31 +4738,43 @@
         <v>385317</v>
       </c>
       <c r="F82">
+        <v>2503167</v>
+      </c>
+      <c r="G82">
+        <v>2160412</v>
+      </c>
+      <c r="H82">
         <v>2016</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>9</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>668.6323809523808</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>20869729611.54539</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>36897655128.3074</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>0.5656112709323473</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>0.612220340905809</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>0.01561823660985806</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="P82">
+        <v>0.1793847820620306</v>
+      </c>
+      <c r="Q82">
+        <v>0.08756900367950717</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="2">
         <v>42644</v>
       </c>
@@ -3795,31 +4791,43 @@
         <v>478860</v>
       </c>
       <c r="F83">
+        <v>2486561</v>
+      </c>
+      <c r="G83">
+        <v>2160979</v>
+      </c>
+      <c r="H83">
         <v>2016</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>10</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>663.9221052631578</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>20894723778.62971</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>37518490200.18201</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>0.5569180334055217</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>0.5989465177395603</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>0.01922410275175732</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="P83">
+        <v>0.1792443003476887</v>
+      </c>
+      <c r="Q83">
+        <v>0.08675371160754665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" s="2">
         <v>42675</v>
       </c>
@@ -3836,31 +4844,43 @@
         <v>570525</v>
       </c>
       <c r="F84">
+        <v>2410206</v>
+      </c>
+      <c r="G84">
+        <v>1955632</v>
+      </c>
+      <c r="H84">
         <v>2016</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>11</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>666.117619047619</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>21956269556.28457</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>35619832476.318</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>0.6164057501079572</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>0.6045448969871576</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>0.02404539335317515</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="P84">
+        <v>0.1647952494889391</v>
+      </c>
+      <c r="Q84">
+        <v>0.08242222636003088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="2">
         <v>42705</v>
       </c>
@@ -3877,31 +4897,43 @@
         <v>602981</v>
       </c>
       <c r="F85">
+        <v>2355616</v>
+      </c>
+      <c r="G85">
+        <v>1700434</v>
+      </c>
+      <c r="H85">
         <v>2016</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>12</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>667.1680952380951</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>21038005414.49895</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>37440180635.56483</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>0.5619098267521372</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>0.6025090257928855</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>0.02413961963247852</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="P85">
+        <v>0.1678280943575632</v>
+      </c>
+      <c r="Q85">
+        <v>0.06807483149574196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" s="2">
         <v>42736</v>
       </c>
@@ -3918,31 +4950,43 @@
         <v>616586</v>
       </c>
       <c r="F86">
+        <v>2392396</v>
+      </c>
+      <c r="G86">
+        <v>1703444</v>
+      </c>
+      <c r="H86">
         <v>2017</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>661.1942857142858</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>21287567518.51628</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>38314423683.55097</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>0.5556019240778868</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>0.6017051387765362</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>0.02433897421407526</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="P86">
+        <v>0.1699722164161152</v>
+      </c>
+      <c r="Q86">
+        <v>0.06724135739559642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="2">
         <v>42767</v>
       </c>
@@ -3959,31 +5003,43 @@
         <v>682994</v>
       </c>
       <c r="F87">
+        <v>2413072</v>
+      </c>
+      <c r="G87">
+        <v>2024235</v>
+      </c>
+      <c r="H87">
         <v>2017</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>2</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>643.2095</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>22287512855.45378</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>40001026104.24753</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>0.5571735284332412</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>0.6032827504230744</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>0.02654564647573326</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="P87">
+        <v>0.1683279457906713</v>
+      </c>
+      <c r="Q87">
+        <v>0.07867510797138175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="2">
         <v>42795</v>
       </c>
@@ -4000,31 +5056,43 @@
         <v>729166</v>
       </c>
       <c r="F88">
+        <v>2490166</v>
+      </c>
+      <c r="G88">
+        <v>2056472</v>
+      </c>
+      <c r="H88">
         <v>2017</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>3</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>661.2026086956522</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>23001258313.24477</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>38982075480.38291</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>0.5900470416158261</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>0.5961617364824863</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>0.02828960564576984</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="P88">
+        <v>0.1637352342362412</v>
+      </c>
+      <c r="Q88">
+        <v>0.07978537384020594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" s="2">
         <v>42826</v>
       </c>
@@ -4041,31 +5109,43 @@
         <v>780814</v>
       </c>
       <c r="F89">
+        <v>2429552</v>
+      </c>
+      <c r="G89">
+        <v>1839144</v>
+      </c>
+      <c r="H89">
         <v>2017</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>4</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>655.7433333333333</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>23563294073.39254</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>39594711345.39429</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>0.5951121569707681</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>0.6014411700424936</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>0.03007298422182619</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="P89">
+        <v>0.1572375656353281</v>
+      </c>
+      <c r="Q89">
+        <v>0.07083447337479387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" s="2">
         <v>42856</v>
       </c>
@@ -4082,31 +5162,43 @@
         <v>764420</v>
       </c>
       <c r="F90">
+        <v>2481982</v>
+      </c>
+      <c r="G90">
+        <v>1950894</v>
+      </c>
+      <c r="H90">
         <v>2017</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>5</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>671.5395454545455</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>24087525611.0958</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>37723233384.34682</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>0.6385329000215256</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>0.601759142062619</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>0.03017529596102547</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="P90">
+        <v>0.1534386771882758</v>
+      </c>
+      <c r="Q90">
+        <v>0.07701107223592896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" s="2">
         <v>42887</v>
       </c>
@@ -4123,31 +5215,43 @@
         <v>763422</v>
       </c>
       <c r="F91">
+        <v>2445217</v>
+      </c>
+      <c r="G91">
+        <v>1717374</v>
+      </c>
+      <c r="H91">
         <v>2017</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>6</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>665.1533333333334</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>24439032604.0111</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>37024530684.65416</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>0.6600767694306126</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>0.6058824028783989</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>0.03099940349998112</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="P91">
+        <v>0.1504220918392707</v>
+      </c>
+      <c r="Q91">
+        <v>0.06973544066895711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" s="2">
         <v>42917</v>
       </c>
@@ -4164,31 +5268,43 @@
         <v>729709</v>
       </c>
       <c r="F92">
+        <v>2527002</v>
+      </c>
+      <c r="G92">
+        <v>1611875</v>
+      </c>
+      <c r="H92">
         <v>2017</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>7</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>658.1714285714285</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>25850549357.52736</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>34766515237.02032</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>0.7435473236616189</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>0.6022868218717271</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>0.0318896325535423</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="P92">
+        <v>0.1485240500331108</v>
+      </c>
+      <c r="Q92">
+        <v>0.07044191790459073</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" s="2">
         <v>42948</v>
       </c>
@@ -4205,31 +5321,43 @@
         <v>701058</v>
       </c>
       <c r="F93">
+        <v>2529599</v>
+      </c>
+      <c r="G93">
+        <v>1517594</v>
+      </c>
+      <c r="H93">
         <v>2017</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>8</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>644.2418181818181</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>26316407165.01145</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>35661553397.51026</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>0.7379489858915891</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>0.5994541742926355</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>0.03051439620618608</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="P93">
+        <v>0.149202524694573</v>
+      </c>
+      <c r="Q93">
+        <v>0.06605511183972049</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" s="2">
         <v>42979</v>
       </c>
@@ -4246,31 +5374,43 @@
         <v>675433</v>
       </c>
       <c r="F94">
+        <v>2590453</v>
+      </c>
+      <c r="G94">
+        <v>1438639</v>
+      </c>
+      <c r="H94">
         <v>2017</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>9</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>625.5415789473685</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>28759720545.31273</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>35463308509.93118</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>0.810971162977048</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>0.6045208219650023</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>0.0304471637693388</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="P94">
+        <v>0.1439908426721561</v>
+      </c>
+      <c r="Q94">
+        <v>0.0648509581823183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" s="2">
         <v>43009</v>
       </c>
@@ -4287,31 +5427,43 @@
         <v>622556</v>
       </c>
       <c r="F95">
+        <v>2870829</v>
+      </c>
+      <c r="G95">
+        <v>1414007</v>
+      </c>
+      <c r="H95">
         <v>2017</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>10</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>629.5464999999999</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>30649593000.67589</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>32812232297.37597</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>0.9340904551357503</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>0.601328900899616</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>0.03013802798164636</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="P95">
+        <v>0.1487835096383874</v>
+      </c>
+      <c r="Q95">
+        <v>0.06845228787810867</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" s="2">
         <v>43040</v>
       </c>
@@ -4328,31 +5480,43 @@
         <v>564744</v>
       </c>
       <c r="F96">
+        <v>2831638</v>
+      </c>
+      <c r="G96">
+        <v>1436505</v>
+      </c>
+      <c r="H96">
         <v>2017</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>11</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>633.767619047619</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>31009014044.50483</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>31479206889.71172</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>0.9850633833674962</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>0.6300345670875918</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>0.02830725763191322</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="P96">
+        <v>0.1440853175541097</v>
+      </c>
+      <c r="Q96">
+        <v>0.07200345134172563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" s="2">
         <v>43070</v>
       </c>
@@ -4369,31 +5533,43 @@
         <v>499942</v>
       </c>
       <c r="F97">
+        <v>2828074</v>
+      </c>
+      <c r="G97">
+        <v>1165180</v>
+      </c>
+      <c r="H97">
         <v>2017</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>12</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>636.9236842105264</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>31576459627.07256</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>30263019695.82409</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>1.043400822008179</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>0.6212840773287516</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>0.02593701326790637</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="P97">
+        <v>0.140617682310306</v>
+      </c>
+      <c r="Q97">
+        <v>0.0604495903914837</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" s="2">
         <v>43101</v>
       </c>
@@ -4410,31 +5586,43 @@
         <v>449361</v>
       </c>
       <c r="F98">
+        <v>3037171</v>
+      </c>
+      <c r="G98">
+        <v>1222078</v>
+      </c>
+      <c r="H98">
         <v>2018</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>605.5286363636365</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>35622923020.6814</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>30541278957.60503</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>1.166386092413821</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>0.6281313541053374</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>0.02429816468047709</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="P98">
+        <v>0.1408007621449466</v>
+      </c>
+      <c r="Q98">
+        <v>0.06608106287903952</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" s="2">
         <v>43132</v>
       </c>
@@ -4451,31 +5639,43 @@
         <v>488607</v>
       </c>
       <c r="F99">
+        <v>2891444</v>
+      </c>
+      <c r="G99">
+        <v>1119232</v>
+      </c>
+      <c r="H99">
         <v>2018</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>2</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>596.8389999999999</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>33296245721.2079</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>33298725451.92255</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>0.9999255307618837</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>0.6134812543445721</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>0.02458526420830294</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="P99">
+        <v>0.1454997756195522</v>
+      </c>
+      <c r="Q99">
+        <v>0.05631645561849771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" s="2">
         <v>43160</v>
       </c>
@@ -4492,31 +5692,43 @@
         <v>454193</v>
       </c>
       <c r="F100">
+        <v>3079110</v>
+      </c>
+      <c r="G100">
+        <v>1050346</v>
+      </c>
+      <c r="H100">
         <v>2018</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>3</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>603.4452380952381</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>33039236605.68087</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>31584397053.42734</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>1.046061970085817</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>0.6155309351233388</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>0.02383032588446658</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="P100">
+        <v>0.1544391261234556</v>
+      </c>
+      <c r="Q100">
+        <v>0.0551089238967706</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" s="2">
         <v>43191</v>
       </c>
@@ -4533,31 +5745,43 @@
         <v>491693</v>
       </c>
       <c r="F101">
+        <v>3125411</v>
+      </c>
+      <c r="G101">
+        <v>1048441</v>
+      </c>
+      <c r="H101">
         <v>2018</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>4</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>600.547619047619</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>34011359552.78912</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>32154760734.25048</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>1.057739469246339</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>0.6074231640824793</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>0.02546251475560014</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="P101">
+        <v>0.153015594620454</v>
+      </c>
+      <c r="Q101">
+        <v>0.05429392818867904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" s="2">
         <v>43221</v>
       </c>
@@ -4574,31 +5798,43 @@
         <v>444050</v>
       </c>
       <c r="F102">
+        <v>3139187</v>
+      </c>
+      <c r="G102">
+        <v>1006050</v>
+      </c>
+      <c r="H102">
         <v>2018</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>5</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>626.1190476190475</v>
       </c>
-      <c r="I102">
+      <c r="K102">
         <v>32803258546.60228</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>29729983572.27061</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>1.103372911958086</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>0.6236226702264428</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>0.02385504769424754</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="P102">
+        <v>0.1528422014100667</v>
+      </c>
+      <c r="Q102">
+        <v>0.05404655046233021</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" s="2">
         <v>43252</v>
       </c>
@@ -4615,31 +5851,43 @@
         <v>454535</v>
       </c>
       <c r="F103">
+        <v>3293533</v>
+      </c>
+      <c r="G103">
+        <v>953843</v>
+      </c>
+      <c r="H103">
         <v>2018</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>6</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>636.1461904761907</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>31624606578.15251</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>31098447646.43047</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>1.016919138141689</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>0.6181799636571917</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>0.02297585537274406</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="P103">
+        <v>0.1637117900088146</v>
+      </c>
+      <c r="Q103">
+        <v>0.04821489833853127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" s="2">
         <v>43282</v>
       </c>
@@ -4656,31 +5904,43 @@
         <v>461500</v>
       </c>
       <c r="F104">
+        <v>3380504</v>
+      </c>
+      <c r="G104">
+        <v>934389</v>
+      </c>
+      <c r="H104">
         <v>2018</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>7</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>652.4069999999999</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>31993910243.14577</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>30209872058.393</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>1.059054807690161</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>0.6185392830209633</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>0.023415541587524</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="P104">
+        <v>0.1619554323898313</v>
+      </c>
+      <c r="Q104">
+        <v>0.04740893713634878</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" s="2">
         <v>43313</v>
       </c>
@@ -4697,31 +5957,43 @@
         <v>516218</v>
       </c>
       <c r="F105">
+        <v>3310421</v>
+      </c>
+      <c r="G105">
+        <v>932295</v>
+      </c>
+      <c r="H105">
         <v>2018</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>8</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>656.250909090909</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>32327703788.46229</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>30570720317.61688</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>1.057472753425209</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>0.6256768709623365</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>0.02573105268386407</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="P105">
+        <v>0.1560409020279674</v>
+      </c>
+      <c r="Q105">
+        <v>0.04647054492850511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" s="2">
         <v>43344</v>
       </c>
@@ -4738,31 +6010,43 @@
         <v>480556</v>
       </c>
       <c r="F106">
+        <v>3292486</v>
+      </c>
+      <c r="G106">
+        <v>940074</v>
+      </c>
+      <c r="H106">
         <v>2018</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>9</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>680.914705882353</v>
       </c>
-      <c r="I106">
+      <c r="K106">
         <v>30609049591.59607</v>
       </c>
-      <c r="J106">
+      <c r="L106">
         <v>29898744768.06717</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>1.023757011507972</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>0.6175742792778788</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>0.02360469180064637</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="P106">
+        <v>0.1579724588900417</v>
+      </c>
+      <c r="Q106">
+        <v>0.04617600662524415</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="2">
         <v>43374</v>
       </c>
@@ -4779,31 +6063,43 @@
         <v>477722</v>
       </c>
       <c r="F107">
+        <v>3158206</v>
+      </c>
+      <c r="G107">
+        <v>882171</v>
+      </c>
+      <c r="H107">
         <v>2018</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>10</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>676.8409090909089</v>
       </c>
-      <c r="I107">
+      <c r="K107">
         <v>28511850777.34127</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>32087804842.01337</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>0.8885572234598603</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>0.6186313111310522</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>0.02199624934485091</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="P107">
+        <v>0.1636546858488401</v>
+      </c>
+      <c r="Q107">
+        <v>0.04061871398176444</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" s="2">
         <v>43405</v>
       </c>
@@ -4820,31 +6116,43 @@
         <v>426377</v>
       </c>
       <c r="F108">
+        <v>2939480</v>
+      </c>
+      <c r="G108">
+        <v>736753</v>
+      </c>
+      <c r="H108">
         <v>2018</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>11</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>677.6119999999999</v>
       </c>
-      <c r="I108">
+      <c r="K108">
         <v>28322101733.73554</v>
       </c>
-      <c r="J108">
+      <c r="L108">
         <v>33073599641.09255</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>0.8563356284493001</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>0.6182749811425912</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>0.01902528696981331</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="P108">
+        <v>0.1531665544288701</v>
+      </c>
+      <c r="Q108">
+        <v>0.03287451539569645</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" s="2">
         <v>43435</v>
       </c>
@@ -4861,31 +6169,43 @@
         <v>392819</v>
       </c>
       <c r="F109">
+        <v>3054139</v>
+      </c>
+      <c r="G109">
+        <v>723979</v>
+      </c>
+      <c r="H109">
         <v>2018</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>12</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>681.9868421052633</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>28631599313.15236</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>32249301074.64644</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>0.8878207700340449</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>0.6066695741871994</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>0.01786060571532654</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="P109">
+        <v>0.1564109649851017</v>
+      </c>
+      <c r="Q109">
+        <v>0.03291771392212798</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" s="2">
         <v>43466</v>
       </c>
@@ -4902,31 +6222,43 @@
         <v>437827</v>
       </c>
       <c r="F110">
+        <v>3007463</v>
+      </c>
+      <c r="G110">
+        <v>741719</v>
+      </c>
+      <c r="H110">
         <v>2019</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>1</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>677.0618181818182</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>29235057225.87436</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>33627871766.77838</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>0.8693698319248452</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>0.6004749130049443</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>0.01922980296860333</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="P110">
+        <v>0.1519385654428292</v>
+      </c>
+      <c r="Q110">
+        <v>0.03257704579221814</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="2">
         <v>43497</v>
       </c>
@@ -4943,31 +6275,43 @@
         <v>448887</v>
       </c>
       <c r="F111">
+        <v>3011316</v>
+      </c>
+      <c r="G111">
+        <v>741349</v>
+      </c>
+      <c r="H111">
         <v>2019</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>2</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>656.3045</v>
       </c>
-      <c r="I111">
+      <c r="K111">
         <v>30624230063.94136</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>34447831761.01946</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>0.8890031243880834</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>0.6060713514524734</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>0.01985499375073729</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="P111">
+        <v>0.149825512144494</v>
+      </c>
+      <c r="Q111">
+        <v>0.03279105824431391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" s="2">
         <v>43525</v>
       </c>
@@ -4984,31 +6328,43 @@
         <v>472802</v>
       </c>
       <c r="F112">
+        <v>3218687</v>
+      </c>
+      <c r="G112">
+        <v>825829</v>
+      </c>
+      <c r="H112">
         <v>2019</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>3</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>667.6785714285716</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>30656011553.89141</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>34757705268.78844</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>0.8819918149608038</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>0.6216602969988512</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>0.02037327139793101</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="P112">
+        <v>0.157251811356473</v>
+      </c>
+      <c r="Q112">
+        <v>0.03558537896472935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" s="2">
         <v>43556</v>
       </c>
@@ -5025,31 +6381,43 @@
         <v>554940</v>
       </c>
       <c r="F113">
+        <v>3321637</v>
+      </c>
+      <c r="G113">
+        <v>870495</v>
+      </c>
+      <c r="H113">
         <v>2019</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>4</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>667.3990476190476</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>31156401966.98199</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>35474668542.70095</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>0.878271827388012</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>0.6213855670979644</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>0.02343916309339172</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="P113">
+        <v>0.1597420629166846</v>
+      </c>
+      <c r="Q113">
+        <v>0.03676735192449999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" s="2">
         <v>43586</v>
       </c>
@@ -5066,31 +6434,43 @@
         <v>489523</v>
       </c>
       <c r="F114">
+        <v>3264278</v>
+      </c>
+      <c r="G114">
+        <v>844555</v>
+      </c>
+      <c r="H114">
         <v>2019</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>5</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>692.0038095238097</v>
       </c>
-      <c r="I114">
+      <c r="K114">
         <v>28457265305.44836</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>37343129682.74327</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>0.7620482146840202</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>0.6207540765699248</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>0.01894322438698427</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="P114">
+        <v>0.1657621953820473</v>
+      </c>
+      <c r="Q114">
+        <v>0.03268200855148685</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" s="2">
         <v>43617</v>
       </c>
@@ -5107,31 +6487,43 @@
         <v>484249</v>
       </c>
       <c r="F115">
+        <v>3251034</v>
+      </c>
+      <c r="G115">
+        <v>794479</v>
+      </c>
+      <c r="H115">
         <v>2019</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>6</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>692.409</v>
       </c>
-      <c r="I115">
+      <c r="K115">
         <v>29702392660.98505</v>
       </c>
-      <c r="J115">
+      <c r="L115">
         <v>36986168579.55341</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>0.8030675736822614</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>0.6259451185060695</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>0.01890891821787148</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="P115">
+        <v>0.1580765220455851</v>
+      </c>
+      <c r="Q115">
+        <v>0.03102275572446473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" s="2">
         <v>43647</v>
       </c>
@@ -5148,31 +6540,43 @@
         <v>541144</v>
       </c>
       <c r="F116">
+        <v>3362245</v>
+      </c>
+      <c r="G116">
+        <v>925054</v>
+      </c>
+      <c r="H116">
         <v>2019</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>7</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>686.0595454545455</v>
       </c>
-      <c r="I116">
+      <c r="K116">
         <v>28693850454.27411</v>
       </c>
-      <c r="J116">
+      <c r="L116">
         <v>42548063347.27107</v>
       </c>
-      <c r="K116">
+      <c r="M116">
         <v>0.6743867569266102</v>
       </c>
-      <c r="L116">
+      <c r="N116">
         <v>0.6211112742301641</v>
       </c>
-      <c r="M116">
+      <c r="O116">
         <v>0.0185383569074944</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="P116">
+        <v>0.1707964008373595</v>
+      </c>
+      <c r="Q116">
+        <v>0.03169023626004415</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" s="2">
         <v>43678</v>
       </c>
@@ -5189,31 +6593,43 @@
         <v>575496</v>
       </c>
       <c r="F117">
+        <v>3339161</v>
+      </c>
+      <c r="G117">
+        <v>1006525</v>
+      </c>
+      <c r="H117">
         <v>2019</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>8</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>713.7033333333333</v>
       </c>
-      <c r="I117">
+      <c r="K117">
         <v>25819006496.63026</v>
       </c>
-      <c r="J117">
+      <c r="L117">
         <v>44224855799.09487</v>
       </c>
-      <c r="K117">
+      <c r="M117">
         <v>0.5838121126707819</v>
       </c>
-      <c r="L117">
+      <c r="N117">
         <v>0.6206021660150634</v>
       </c>
-      <c r="M117">
+      <c r="O117">
         <v>0.01823300112500458</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="P117">
+        <v>0.1812091434191719</v>
+      </c>
+      <c r="Q117">
+        <v>0.03188896440174256</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" s="2">
         <v>43709</v>
       </c>
@@ -5230,31 +6646,43 @@
         <v>660797</v>
       </c>
       <c r="F118">
+        <v>3289321</v>
+      </c>
+      <c r="G118">
+        <v>968673</v>
+      </c>
+      <c r="H118">
         <v>2019</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>9</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>718.4422222222222</v>
       </c>
-      <c r="I118">
+      <c r="K118">
         <v>26352918041.81269</v>
       </c>
-      <c r="J118">
+      <c r="L118">
         <v>44601934586.86851</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>0.5908469730272954</v>
       </c>
-      <c r="L118">
+      <c r="N118">
         <v>0.6150531802880772</v>
       </c>
-      <c r="M118">
+      <c r="O118">
         <v>0.02062160760453943</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="P118">
+        <v>0.1737343520317303</v>
+      </c>
+      <c r="Q118">
+        <v>0.03022954780834663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" s="2">
         <v>43739</v>
       </c>
@@ -5271,28 +6699,146 @@
         <v>679443</v>
       </c>
       <c r="F119">
+        <v>3498228</v>
+      </c>
+      <c r="G119">
+        <v>852760</v>
+      </c>
+      <c r="H119">
         <v>2019</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>10</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>721.0322727272728</v>
       </c>
-      <c r="I119">
+      <c r="K119">
         <v>28252871293.74489</v>
       </c>
-      <c r="J119">
+      <c r="L119">
         <v>40136992607.19006</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>0.7039110172066982</v>
       </c>
-      <c r="L119">
+      <c r="N119">
         <v>0.6207581357867801</v>
       </c>
-      <c r="M119">
+      <c r="O119">
         <v>0.0234775890463557</v>
+      </c>
+      <c r="P119">
+        <v>0.1717239291172964</v>
+      </c>
+      <c r="Q119">
+        <v>0.0294664141586127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="2">
+        <v>43770</v>
+      </c>
+      <c r="B120">
+        <v>24332110</v>
+      </c>
+      <c r="C120">
+        <v>24116764</v>
+      </c>
+      <c r="D120">
+        <v>16139834</v>
+      </c>
+      <c r="E120">
+        <v>620098</v>
+      </c>
+      <c r="F120">
+        <v>3912267</v>
+      </c>
+      <c r="G120">
+        <v>776448</v>
+      </c>
+      <c r="H120">
+        <v>2019</v>
+      </c>
+      <c r="I120">
+        <v>11</v>
+      </c>
+      <c r="J120">
+        <v>776.53</v>
+      </c>
+      <c r="K120">
+        <v>31334410776.14516</v>
+      </c>
+      <c r="L120">
+        <v>31057092449.74438</v>
+      </c>
+      <c r="M120">
+        <v>1.00892930743113</v>
+      </c>
+      <c r="N120">
+        <v>0.6633141967548232</v>
+      </c>
+      <c r="O120">
+        <v>0.02571232193506558</v>
+      </c>
+      <c r="P120">
+        <v>0.1607861792503815</v>
+      </c>
+      <c r="Q120">
+        <v>0.03219536418733459</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="2">
+        <v>43800</v>
+      </c>
+      <c r="B121">
+        <v>21293967</v>
+      </c>
+      <c r="C121">
+        <v>27904268</v>
+      </c>
+      <c r="D121">
+        <v>13837559</v>
+      </c>
+      <c r="E121">
+        <v>614852</v>
+      </c>
+      <c r="F121">
+        <v>3483117</v>
+      </c>
+      <c r="G121">
+        <v>1200570</v>
+      </c>
+      <c r="H121">
+        <v>2019</v>
+      </c>
+      <c r="I121">
+        <v>12</v>
+      </c>
+      <c r="J121">
+        <v>770.3905000000002</v>
+      </c>
+      <c r="K121">
+        <v>27640484922.90597</v>
+      </c>
+      <c r="L121">
+        <v>36220939899.95982</v>
+      </c>
+      <c r="M121">
+        <v>0.7631078872952338</v>
+      </c>
+      <c r="N121">
+        <v>0.6498347160958783</v>
+      </c>
+      <c r="O121">
+        <v>0.02203433539270767</v>
+      </c>
+      <c r="P121">
+        <v>0.1635729500285222</v>
+      </c>
+      <c r="Q121">
+        <v>0.04302460111119919</v>
       </c>
     </row>
   </sheetData>
